--- a/output/fit_clients/fit_round_76.xlsx
+++ b/output/fit_clients/fit_round_76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6802184690.251334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00300150839897675</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.968246837042197</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9532969301572825</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.968246837042197</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5167935358.338168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004835810382771119</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.345477489411934</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8901055424610386</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.345477489411934</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5798610233.673766</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003796624491735071</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3166839301475096</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.785433508277193</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.5905952719015494</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.785433508277193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3151345114.144917</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003913815159463663</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.491893186923256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8314775168277678</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.491893186923256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5737807880.125594</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002504209201733742</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8379968526920648</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.349946194921231</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.030560406422256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.349946194921231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7487334255.017147</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008591037216741017</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.400072467786495</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9043256693470231</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.400072467786495</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6729181740.743258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003242905389540543</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.270737991028093</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9622508412842017</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.270737991028093</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5756795475.343353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004708644576685015</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9412679307828712</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.696311279859203</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.10664376295164</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.696311279859203</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3745889871.779549</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004400052066060982</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.538342832269809</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9409133089669262</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.538342832269809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4904561145.124166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001228846215502748</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.376217211100245</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7835043250145404</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.376217211100245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6024282890.149323</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001510726833742716</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.920530619802644</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9859859334040729</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.920530619802644</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4741846480.563792</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003239763559992622</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.464610135154142</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.029372133616756</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.464610135154142</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8658094964.538567</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003524999142670135</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.92713273344062</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9024178556002004</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.92713273344062</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6559496556.020782</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005169683151679213</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.319280082304546</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9982104952766786</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.319280082304546</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5461322824.840143</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003886629661555578</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.005268634916161</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9204975315165359</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.005268634916161</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5005718211.750882</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002805657153182705</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.855495854908381</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9426095982990523</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.855495854908381</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5110063564.219104</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001003306206626909</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.888452324468422</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.930512989002784</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.888452324468422</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4487267759.727697</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002284138757730478</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.738160265116596</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.921866541614662</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.738160265116596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4561625320.130329</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009937029567887155</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.995868485327892</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8316040453408535</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.995868485327892</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5858317239.684033</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005628834165202315</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.811458038289067</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8708647668751746</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.811458038289067</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4222876416.296664</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004673866981350356</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.474933923009192</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7856207687495502</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.474933923009192</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5719212208.400217</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001640961166169038</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.199650882680107</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8549587769947334</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.199650882680107</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7705316833.034751</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003277426556004402</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>13</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.653088845637472</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.935225278681804</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.996128774664378</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.935225278681804</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6385501824.824861</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003808611659485668</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.259360936060877</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9499839469674978</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.259360936060877</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4004342339.897033</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00142381501219473</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>19</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8918866866477196</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.202778307118029</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.998012817600574</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.202778307118029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8673114468.560156</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003844717451055329</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>15</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.669680825596197</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9347499452588661</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.669680825596197</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8227079898.361348</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004234204728895338</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9215374351579286</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.855068532383642</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.121093518761892</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.855068532383642</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7604669045.849358</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001418053810373343</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.041492679275978</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9874344880994268</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.041492679275978</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7315499865.834133</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004177717735549801</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>16</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8266742589488232</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.437585543485706</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.028233594901272</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.437585543485706</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6895093591.946186</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003464276934984199</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.44443057510102</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9451036411154325</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.44443057510102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5214194138.473686</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001413733656339348</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>16</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.518087594713723</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.854525823663871</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.7989368618478212</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.854525823663871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7370632969.505002</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.00225204910733341</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.734637727193868</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.030347985341185</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9142157658048738</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.030347985341185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6244938240.700424</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003965537355821642</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.792728214395826</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7487717446944168</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.792728214395826</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6667254930.614217</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.00230097231528368</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.639549837174719</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.191129479926019</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.639549837174719</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6776600304.67026</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003017392412771334</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.728657701191053</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.014418808927333</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.728657701191053</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6493579108.908531</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005371236044393943</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>18</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4541902582227526</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.604438898159352</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7927387328981506</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.604438898159352</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4378254523.138603</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003489267107736059</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7855896130530698</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.485618930095864</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.010789240004154</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.485618930095864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6382463283.57495</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002383913197095759</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.022761710654228</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8622784250929461</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.022761710654228</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6763787919.236144</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004633872080722787</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.757749517397844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9742553240147886</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.757749517397844</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7211791149.57036</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001104646728602037</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.079666450773477</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9364573989113782</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.079666450773477</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6313870861.145783</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004096098877180718</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.465223348937198</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9700175289734035</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.465223348937198</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6500991595.762409</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004156995656685914</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.765275525254089</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9158274309473419</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.765275525254089</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5779351997.244262</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001991699003531</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>18</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.551245230044073</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.930151405906063</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.551245230044073</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3991090020.838783</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001398298953616698</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.014862907684816</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9569500297259628</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.014862907684816</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9467940759.878309</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003721209531864423</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.592562953331953</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8192024650526103</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.592562953331953</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6736264376.184897</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002629432306523602</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.562785665673481</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8942050052767636</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.562785665673481</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7122835253.328292</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003548554358744758</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.247047500006404</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9543107090206202</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.247047500006404</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5745719209.233118</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003976236655198365</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>19</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.503255619494925</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8582958261551096</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.503255619494925</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7809420324.47234</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00282137557769747</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.627865954782464</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.02283779965858</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.627865954782464</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4375628073.879587</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004435017383534115</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>18</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.498859262419655</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9433450733827493</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.498859262419655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6604752848.203153</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002046343043683163</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.760892520042546</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8622784250929461</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.760892520042546</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5320810126.418601</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002456957235096087</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.74710236107381</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9240982823684523</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.74710236107381</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5493043805.72611</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005341349376158546</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.416275896233983</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8459378186367376</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.416275896233983</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8504786208.589377</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003586646605106673</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.55852649323175</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9063455597127509</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.55852649323175</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4502663219.387356</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002268172081125294</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>15</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.681337748055107</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9045116409626114</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.681337748055107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7791644776.57834</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002843574065276889</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.603119965050666</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8247004659616538</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.603119965050666</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6239496821.384806</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00266617001989732</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.348146624615217</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8262282212427206</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.348146624615217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5631789361.484618</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003890585916636261</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.790591539454388</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9042560207597228</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.790591539454388</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4291564444.634355</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003957826773869562</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.523703195615834</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8358645678171962</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.523703195615834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6647182119.383658</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004667792692740876</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.98760187896814</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9315062280680505</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.98760187896814</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5028138760.264925</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003554698301537359</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.805754980781749</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.148714365115485</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9895105793587946</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.148714365115485</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7439974935.884035</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003981320180079431</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>20</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.27795182564996</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8908136641465096</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.27795182564996</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4080998691.685146</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.00527717375058918</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.787722778893059</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8939464379398516</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.787722778893059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7525133003.099417</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004734618566059951</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>17</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.946845550926889</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9937363726014811</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.946845550926889</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6794077747.960649</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003964477491746767</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9009257813822728</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.768349791923224</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.10468873777222</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.768349791923224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7353504736.45439</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005181268222256069</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.024345066007867</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8839684760691936</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.024345066007867</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8554710968.84713</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.001920382547430337</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6152466679996196</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.29784553494079</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.691478084897306</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.29784553494079</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5913270408.378287</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001158191291243681</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.271897200733068</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9861565054633245</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.271897200733068</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6742923458.894563</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003410430070383541</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.015715506244131</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9067166362237374</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.015715506244131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4911622580.296872</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002745887019614132</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.781369959023243</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7977540311771311</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.781369959023243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5696343133.572847</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001601233689102681</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.49316370917559</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.036352252718074</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.49316370917559</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>8060216116.838508</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001305118335240504</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.917645860001866</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.3973597071195131</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.917645860001866</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4032924938.202417</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004002873722400851</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.668205929923148</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8772134742795056</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.668205929923148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5151659132.448248</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003486513722249303</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
         <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.728737860575418</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8720466155248956</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.728737860575418</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6444782003.071488</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00190444608511796</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.585481874955263</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9205659512972273</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.585481874955263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>8167935856.067811</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.00467796483182134</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.098289486934707</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9847060707897357</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.098289486934707</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5388486737.587606</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004788667425494074</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.682290383745948</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9214332154828012</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.682290383745948</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7965585706.945593</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002375657470894567</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>12</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.2869714062215239</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.859421288799533</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.5596300600156677</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.859421288799533</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7895851935.431314</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002584838229873077</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2916175525848401</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.668360470201623</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.5199754408610544</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.668360470201623</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6053665777.600093</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005210279213476406</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.481154664210016</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9880091146536627</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.481154664210016</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5573944270.591065</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004716764811348389</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.450246998927518</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8737561858010702</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.450246998927518</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>6917500892.700426</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003155932777235163</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.194463712180565</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8180212628313112</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.194463712180565</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6433951182.88127</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003596368038414898</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.469509954216131</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9524586800171927</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.469509954216131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4577586351.675749</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002613194235456225</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.204948470192145</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8857261452734896</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.204948470192145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8712930167.761114</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002543248762962193</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>17</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.4063676176492245</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.759883340844122</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.7189843011735393</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.759883340844122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4499454687.396338</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001396958419967944</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.156892396210692</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9499394914511542</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.156892396210692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8123905437.62308</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003787875954397634</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.579022442945438</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8420028877929067</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.579022442945438</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5961016934.156732</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004377128071031558</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.041792034089193</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9599325883766384</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.041792034089193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5915927063.1036</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002629636114995467</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>13</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.757710959975307</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9508906165079578</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.757710959975307</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5192519153.148879</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003528277439984523</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.803540822070568</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8085104228913511</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.803540822070568</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3543379062.253696</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004156599485499196</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.009871307626443</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.05109366305396</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.009871307626443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5876930339.608259</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001394222950894922</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.584719218863849</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9209996854730037</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.584719218863849</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5334228067.689307</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001166830819770759</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.881014130902293</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.002559714078255</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.881014130902293</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5953071138.268348</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001943373377887489</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.992685312908204</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9320477617163033</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.992685312908204</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8310849856.210683</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002902580147072014</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>22</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.26734243850737</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8991275460322139</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.26734243850737</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7428697471.638822</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005985093384619238</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.873177858777486</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.892346136030113</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.873177858777486</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7184265728.758262</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004683342549734009</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>14</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.548744791152989</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.863009379955422</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.548744791152989</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2394279177.846955</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004809335329562276</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.479719296443904</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8917098654480254</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.479719296443904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5204468211.390936</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002335678536876591</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7862897060455164</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.663859803754988</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9270206903780726</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.663859803754988</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5542142307.499043</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001696574691133088</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6487407422931275</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.85212844265282</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8891368914025113</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.85212844265282</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_76.xlsx
+++ b/output/fit_clients/fit_round_76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6802184690.251334</v>
+        <v>1986242811.174787</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00300150839897675</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19</v>
+        <v>0.07084975051925622</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04509784413034031</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>993121399.2668157</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5167935358.338168</v>
+        <v>2419734534.299587</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004835810382771119</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+        <v>0.1776658828504833</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04541033320868631</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1209867372.109356</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>529</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4853806153.478012</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1164994347015879</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03810546942782576</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>534</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5798610233.673766</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003796624491735071</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
+      <c r="I4" t="n">
+        <v>27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2426903151.309073</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3151345114.144917</v>
+        <v>3246091699.26536</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003913815159463663</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.06737508915666396</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03256376019148578</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1623045903.117786</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5737807880.125594</v>
+        <v>2440264972.34577</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002504209201733742</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.136274498221412</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04189692006542516</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1220132468.039771</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7487334255.017147</v>
+        <v>2660048284.037725</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008591037216741017</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.07957078449425783</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04007096456072638</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1330024139.552367</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6729181740.743258</v>
+        <v>2757896957.677646</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003242905389540543</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1787617893329587</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02026277194555915</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1378948511.512981</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5756795475.343353</v>
+        <v>1943578947.318737</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004708644576685015</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24</v>
+        <v>0.1920558613745008</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02857312032058235</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>971789507.9820441</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3745889871.779549</v>
+        <v>4578482780.404628</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004400052066060982</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1408581209805814</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04872725431601591</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2289241456.782348</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4904561145.124166</v>
+        <v>3961890225.545915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001228846215502748</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1693209112418581</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03157281178892321</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1980945122.723066</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>524</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3259231787.659038</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1973937114195825</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05122222663525131</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>537</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6024282890.149323</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.001510726833742716</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21</v>
+      <c r="I12" t="n">
+        <v>26</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1629615935.459081</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4741846480.563792</v>
+        <v>5129300396.265375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003239763559992622</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15</v>
+        <v>0.09043412210786686</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0208798757907773</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>26</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2564650195.618198</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8658094964.538567</v>
+        <v>3402765797.962483</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003524999142670135</v>
-      </c>
-      <c r="G14" t="b">
+        <v>0.1556512389845666</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02705161126252273</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>17</v>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1701382904.140528</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6559496556.020782</v>
+        <v>1432976923.137136</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005169683151679213</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.06820776070866988</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03034948563453823</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>716488531.7847668</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5461322824.840143</v>
+        <v>2388078323.364111</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003886629661555578</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23</v>
+        <v>0.07183802097124294</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03476703816739271</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1194039202.406568</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5005718211.750882</v>
+        <v>3817715573.165861</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002805657153182705</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
+        <v>0.1388575908148948</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04786142777196715</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1908857830.092445</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5110063564.219104</v>
+        <v>3691834144.939106</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001003306206626909</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>21</v>
+        <v>0.1138520251456124</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02291278450698347</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1845917052.604914</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4487267759.727697</v>
+        <v>1205060704.91235</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002284138757730478</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1845639992428262</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01766843113973905</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>602530431.5031368</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4561625320.130329</v>
+        <v>1749517509.758143</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009937029567887155</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1191501530374727</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0208812126905093</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>874758807.818305</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5858317239.684033</v>
+        <v>1665850071.20067</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005628834165202315</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>14</v>
+        <v>0.06638360902361815</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02928195013284213</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>832925103.4093723</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2727827219.830057</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08734312533169479</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05089884957084995</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4222876416.296664</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.004673866981350356</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+      <c r="I22" t="n">
+        <v>21</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1363913687.650592</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5719212208.400217</v>
+        <v>994497620.2548168</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001640961166169038</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>14</v>
+        <v>0.1142843887930358</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03495991644946719</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>497248881.1429424</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7705316833.034751</v>
+        <v>3600248671.381185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003277426556004402</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+        <v>0.1082845283701942</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03445177969035727</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1800124330.48043</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6385501824.824861</v>
+        <v>952304660.9862821</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003808611659485668</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>17</v>
+        <v>0.0890345571830226</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02929530287612557</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>476152405.3477719</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4004342339.897033</v>
+        <v>1424564266.186984</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00142381501219473</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09625356363785927</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02506981797187408</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>712282209.029665</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8673114468.560156</v>
+        <v>3499537237.998971</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003844717451055329</v>
-      </c>
-      <c r="G27" t="b">
+        <v>0.1092201702542102</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02325872211605013</v>
+      </c>
+      <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>22</v>
+      <c r="I27" t="n">
+        <v>18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1749768653.918975</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8227079898.361348</v>
+        <v>2681148590.709586</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004234204728895338</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>19</v>
+        <v>0.1301572158886463</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04994366204695991</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1340574278.787894</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7604669045.849358</v>
+        <v>4120941687.169701</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001418053810373343</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20</v>
+        <v>0.09256419058350922</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03693712129822307</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>35</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2060470851.945117</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7315499865.834133</v>
+        <v>1653269671.645733</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004177717735549801</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.09177150818920131</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03521489138819675</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>826634833.687901</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6895093591.946186</v>
+        <v>1057658220.803315</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003464276934984199</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15</v>
+        <v>0.1078102746716093</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04399406148565629</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>528829095.274693</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5214194138.473686</v>
+        <v>1187133858.247644</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001413733656339348</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1042340451749416</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03706931659301924</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>593566932.5888314</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7370632969.505002</v>
+        <v>1911256642.157607</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00225204910733341</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16</v>
+        <v>0.1717593432075718</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05578030012909947</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>955628409.3375274</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6244938240.700424</v>
+        <v>1222925171.687328</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003965537355821642</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>23</v>
+        <v>0.1101650394161161</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02054476369877915</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>611462587.0527871</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6667254930.614217</v>
+        <v>915915429.5519999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00230097231528368</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>19</v>
+        <v>0.1173336358317475</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02872585487113116</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>457957751.7058368</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6776600304.67026</v>
+        <v>1992933507.853921</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003017392412771334</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>21</v>
+        <v>0.1800124768955251</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02567294308140262</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>996466816.445402</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6493579108.908531</v>
+        <v>2493772117.049978</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005371236044393943</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.08885872705273511</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03111694114600013</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1246886153.658184</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4378254523.138603</v>
+        <v>1707267533.716206</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003489267107736059</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07491837427081588</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02451302228998404</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>853633786.7464443</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6382463283.57495</v>
+        <v>1975038776.086576</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002383913197095759</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>11</v>
+        <v>0.1503823690723108</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02586089391390176</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>987519386.2882138</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6763787919.236144</v>
+        <v>1362487019.884248</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004633872080722787</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>22</v>
+        <v>0.1514020928802433</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05000130777850934</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>681243510.471727</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7211791149.57036</v>
+        <v>2566764515.626925</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001104646728602037</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>21</v>
+        <v>0.1411317817681892</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04549790029754684</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>19</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1283382276.445889</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>501</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4182118060.468615</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0836617674481392</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03026977745843357</v>
+      </c>
+      <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="D42" t="n">
-        <v>514</v>
-      </c>
-      <c r="E42" t="n">
-        <v>6313870861.145783</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.004096098877180718</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>19</v>
+      <c r="I42" t="n">
+        <v>26</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2091059071.967492</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6500991595.762409</v>
+        <v>3073858230.262557</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004156995656685914</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.1454135348734855</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02323857784970861</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1536929106.010923</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5779351997.244262</v>
+        <v>1983009429.033508</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001991699003531</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>20</v>
+        <v>0.06364524438133184</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03405855908051988</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>991504817.3740089</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3991090020.838783</v>
+        <v>2256819625.967705</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001398298953616698</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1717127787918788</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04893334809991277</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1128409829.617955</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9467940759.878309</v>
+        <v>4395285978.034339</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003721209531864423</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
+        <v>0.1278210482805452</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0392826795790084</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>27</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2197642981.085899</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6736264376.184897</v>
+        <v>5144518790.319996</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002629432306523602</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1780902475543367</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04582378268682354</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2572259459.094283</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7122835253.328292</v>
+        <v>4546630595.567399</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003548554358744758</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>13</v>
+        <v>0.1012533649282913</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03410440323086961</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2273315300.299164</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5745719209.233118</v>
+        <v>1288307829.23951</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003976236655198365</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1234740028658726</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04004466335960742</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>644153979.4803261</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7809420324.47234</v>
+        <v>2628820948.639193</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00282137557769747</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20</v>
+        <v>0.1376535838671011</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04772859011762114</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1314410560.477622</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4375628073.879587</v>
+        <v>1190885374.360872</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004435017383534115</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1748233204523467</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05185162758577131</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>595442740.1350212</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6604752848.203153</v>
+        <v>4436191404.731175</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002046343043683163</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>18</v>
+        <v>0.1223762890292897</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04862813581303765</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>31</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2218095733.083968</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5320810126.418601</v>
+        <v>3340898526.8652</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002456957235096087</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>14</v>
+        <v>0.1562348804494516</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0328122933845444</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>22</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1670449272.249072</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>501</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4517382348.988726</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1230072983550874</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04925658263449537</v>
+      </c>
+      <c r="H54" t="b">
         <v>1</v>
       </c>
-      <c r="D54" t="n">
-        <v>591</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5493043805.72611</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.005341349376158546</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>19</v>
+      <c r="I54" t="n">
+        <v>25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2258691279.096477</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8504786208.589377</v>
+        <v>4509603031.926398</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003586646605106673</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>24</v>
+        <v>0.1558136183019098</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03157781686248139</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>19</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2254801513.281022</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4502663219.387356</v>
+        <v>1666166644.091451</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002268172081125294</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.137850812687845</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05787408808378067</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>833083339.6140709</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7791644776.57834</v>
+        <v>4024216883.617653</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002843574065276889</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1466819230082371</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02733982462166421</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2012108532.10177</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6239496821.384806</v>
+        <v>1758877121.431376</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00266617001989732</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>16</v>
+        <v>0.1528561458533197</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0363834075457144</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>879438568.1436989</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5631789361.484618</v>
+        <v>4970007486.76217</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003890585916636261</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1275769858090389</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04554682500295028</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2485003672.427013</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4291564444.634355</v>
+        <v>3717894331.759194</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003957826773869562</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1634071876437383</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02267682518949161</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1858947311.4143</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6647182119.383658</v>
+        <v>2731691731.574046</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004667792692740876</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>17</v>
+        <v>0.1251484768609044</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0263351251564515</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>26</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1365845871.463125</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5028138760.264925</v>
+        <v>1605396002.701906</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003554698301537359</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.162231038859593</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03486360201580654</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>802698000.1264837</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7439974935.884035</v>
+        <v>3895483364.157823</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003981320180079431</v>
-      </c>
-      <c r="G63" t="b">
+        <v>0.06680245418661702</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04396944809083067</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="H63" t="n">
-        <v>18</v>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1947741749.04022</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4080998691.685146</v>
+        <v>4425477808.084861</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00527717375058918</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1175465538976204</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03445773216026499</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>24</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2212738969.746089</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7525133003.099417</v>
+        <v>5802446759.839463</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004734618566059951</v>
-      </c>
-      <c r="G65" t="b">
+        <v>0.1726233694700961</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02233526111773849</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="H65" t="n">
-        <v>19</v>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2901223290.872043</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6794077747.960649</v>
+        <v>4634333867.066226</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003964477491746767</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>16</v>
+        <v>0.1350229088352405</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03484108208207871</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>22</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2317166941.008539</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7353504736.45439</v>
+        <v>2378764662.918067</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005181268222256069</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.08083008265492583</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03456070680468026</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1189382402.221863</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8554710968.84713</v>
+        <v>4249272336.373922</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001920382547430337</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>16</v>
+        <v>0.1416150460538249</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05081752261569198</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2124636178.996516</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5913270408.378287</v>
+        <v>1521655861.755933</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001158191291243681</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1246873946117332</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04571455242499463</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>760827873.8941177</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>471</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2637722918.409877</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.09464646596527213</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04924310221582846</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="D70" t="n">
-        <v>490</v>
-      </c>
-      <c r="E70" t="n">
-        <v>6742923458.894563</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.003410430070383541</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>18</v>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1318861412.545674</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4911622580.296872</v>
+        <v>5470851485.279123</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002745887019614132</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1155336132310235</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03118700837444336</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>28</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2735425883.380143</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5696343133.572847</v>
+        <v>1717198942.471609</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001601233689102681</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>16</v>
+        <v>0.1088463756900247</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04982148761468147</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>858599463.1097854</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>8060216116.838508</v>
+        <v>2560086065.596173</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001305118335240504</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>19</v>
+        <v>0.08272856356768507</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04096447961511691</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1280043068.966454</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4032924938.202417</v>
+        <v>3046013798.29355</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004002873722400851</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
+        <v>0.1568771131552867</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02827750250836743</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>26</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1523006960.494727</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5151659132.448248</v>
+        <v>1594833690.372015</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003486513722249303</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>15</v>
+        <v>0.1669074844280173</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03625756380402221</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>797416847.2357388</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6444782003.071488</v>
+        <v>4303310452.848476</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00190444608511796</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.102980394294657</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0232280097341744</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>16</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2151655223.781738</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>8167935856.067811</v>
+        <v>2297744379.360452</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00467796483182134</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.112965089684589</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02547080897918952</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1148872295.059053</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5388486737.587606</v>
+        <v>4301419142.815928</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004788667425494074</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.1278589530950603</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03914945504498382</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2150709515.464921</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7965585706.945593</v>
+        <v>1609156365.099297</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002375657470894567</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1576701378574804</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.04005005638298925</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>804578235.7784873</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7895851935.431314</v>
+        <v>4777295612.190205</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002584838229873077</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.0839422307871053</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0379062893736818</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>16</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2388647844.125637</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6053665777.600093</v>
+        <v>3421870344.727931</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005210279213476406</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.09710411836609814</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02061444899200613</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1710935114.011607</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5573944270.591065</v>
+        <v>4534099064.422465</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004716764811348389</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>13</v>
+        <v>0.1344386984282719</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02232172305923839</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2267049542.062083</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>6917500892.700426</v>
+        <v>1656307236.982838</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003155932777235163</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1043165768057836</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03079477824775605</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>828153560.9594945</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6433951182.88127</v>
+        <v>2552997328.795151</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003596368038414898</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>20</v>
+        <v>0.1137165211865675</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04918093549930796</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1276498588.31665</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4577586351.675749</v>
+        <v>3333974255.843946</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002613194235456225</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.1464676302049414</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05550506703465642</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1666987224.844386</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8712930167.761114</v>
+        <v>2441150439.822139</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002543248762962193</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>20</v>
+        <v>0.1359520283167682</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01944893179283636</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1220575308.79967</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4499454687.396338</v>
+        <v>1217620136.76125</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001396958419967944</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1479107560349607</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04210119834411104</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>608810128.3913553</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8123905437.62308</v>
+        <v>2424785778.829032</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003787875954397634</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.1736137003623782</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02806787913947615</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1212392862.949698</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5961016934.156732</v>
+        <v>2319318508.813321</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004377128071031558</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>16</v>
+        <v>0.1213100452256059</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0319337578372748</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1159659342.323013</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5915927063.1036</v>
+        <v>2154646777.655484</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002629636114995467</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>14</v>
+        <v>0.1340184644378478</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03395760588742028</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1077323487.28726</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5192519153.148879</v>
+        <v>1456390318.775976</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003528277439984523</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>23</v>
+        <v>0.186449104684719</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04265348685324292</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>728195204.0054263</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3543379062.253696</v>
+        <v>2076457396.969393</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004156599485499196</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08391217297684958</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03113158645212524</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1038228650.343137</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5876930339.608259</v>
+        <v>3980960727.669058</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001394222950894922</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>25</v>
+        <v>0.1359671791261722</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03308869369317085</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>22</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1990480365.570413</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5334228067.689307</v>
+        <v>1532188243.124329</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001166830819770759</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>24</v>
+        <v>0.1622142709618231</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04008274031965725</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>766094058.9072399</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5953071138.268348</v>
+        <v>2440066643.766601</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001943373377887489</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>19</v>
+        <v>0.1342293836303033</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04939721266437801</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1220033362.270175</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8310849856.210683</v>
+        <v>1554573862.985399</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002902580147072014</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>20</v>
+        <v>0.1090880379196372</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04416038416412619</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>777286965.9338163</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7428697471.638822</v>
+        <v>3392510312.15195</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005985093384619238</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>20</v>
+        <v>0.165592662890453</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02680866430888426</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1696255163.485468</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7184265728.758262</v>
+        <v>2792551807.929699</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004683342549734009</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>28</v>
+        <v>0.1213665512713775</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03106962447209742</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>20</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1396275874.500707</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2394279177.846955</v>
+        <v>3197058676.920527</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004809335329562276</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1016909291473372</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02831505940840869</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>24</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1598529338.621212</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5204468211.390936</v>
+        <v>4665443998.416101</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002335678536876591</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1134976052270309</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01848947479375561</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2332722122.900759</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5542142307.499043</v>
+        <v>3350639386.443416</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001696574691133088</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>24</v>
+        <v>0.2157760788568452</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04722579647857708</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1675319828.535529</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_76.xlsx
+++ b/output/fit_clients/fit_round_76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1986242811.174787</v>
+        <v>1914311216.538809</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07084975051925622</v>
+        <v>0.09305919253217208</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04509784413034031</v>
+        <v>0.03335650088428241</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>993121399.2668157</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2419734534.299587</v>
+        <v>1692905259.036577</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1776658828504833</v>
+        <v>0.1672310347636705</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04541033320868631</v>
+        <v>0.04136058837055533</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1209867372.109356</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4853806153.478012</v>
+        <v>4555307605.870031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1164994347015879</v>
+        <v>0.1045529207236543</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03810546942782576</v>
+        <v>0.02878684979257438</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2426903151.309073</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3246091699.26536</v>
+        <v>3562655453.212298</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06737508915666396</v>
+        <v>0.08900524546810906</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03256376019148578</v>
+        <v>0.03215995701991741</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1623045903.117786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2440264972.34577</v>
+        <v>1845104585.253654</v>
       </c>
       <c r="F6" t="n">
-        <v>0.136274498221412</v>
+        <v>0.1051912150141453</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04189692006542516</v>
+        <v>0.05398713671586076</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1220132468.039771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2660048284.037725</v>
+        <v>2728897041.024724</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07957078449425783</v>
+        <v>0.06202487363058049</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04007096456072638</v>
+        <v>0.03931555699804093</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1330024139.552367</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2757896957.677646</v>
+        <v>3673409110.687751</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1787617893329587</v>
+        <v>0.180949061716459</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02026277194555915</v>
+        <v>0.02181670460774602</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>24</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1378948511.512981</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1943578947.318737</v>
+        <v>1508178908.201687</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1920558613745008</v>
+        <v>0.1339457950867636</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02857312032058235</v>
+        <v>0.0335811387941547</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>971789507.9820441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4578482780.404628</v>
+        <v>3860920887.929478</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1408581209805814</v>
+        <v>0.2004388776787541</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04872725431601591</v>
+        <v>0.03543761542215434</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2289241456.782348</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3961890225.545915</v>
+        <v>3480724787.814903</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1693209112418581</v>
+        <v>0.1631117821775545</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03157281178892321</v>
+        <v>0.03817811203470106</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>32</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1980945122.723066</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3259231787.659038</v>
+        <v>2377131264.602011</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1973937114195825</v>
+        <v>0.1665368353998957</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05122222663525131</v>
+        <v>0.045729029160416</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1629615935.459081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5129300396.265375</v>
+        <v>5319713047.880425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09043412210786686</v>
+        <v>0.06275928364827488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0208798757907773</v>
+        <v>0.02740074017039345</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2564650195.618198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3402765797.962483</v>
+        <v>3053181815.165947</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1556512389845666</v>
+        <v>0.1493977071751615</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02705161126252273</v>
+        <v>0.03440387736221167</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>24</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1701382904.140528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1432976923.137136</v>
+        <v>1316007603.069161</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06820776070866988</v>
+        <v>0.1012814864666668</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03034948563453823</v>
+        <v>0.03065949670259269</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>716488531.7847668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2388078323.364111</v>
+        <v>1966636650.241057</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07183802097124294</v>
+        <v>0.07746120831079786</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03476703816739271</v>
+        <v>0.03425728262685033</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1194039202.406568</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3817715573.165861</v>
+        <v>5232878277.466172</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1388575908148948</v>
+        <v>0.1616559515787808</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04786142777196715</v>
+        <v>0.04948350354253157</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1908857830.092445</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3691834144.939106</v>
+        <v>3981784613.978834</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1138520251456124</v>
+        <v>0.1609751834697505</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02291278450698347</v>
+        <v>0.02901800508721632</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>25</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1845917052.604914</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1205060704.91235</v>
+        <v>1243635679.615809</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1845639992428262</v>
+        <v>0.1562883236346944</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01766843113973905</v>
+        <v>0.02737727229841644</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>602530431.5031368</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1749517509.758143</v>
+        <v>2699644729.912809</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1191501530374727</v>
+        <v>0.1131456049896373</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0208812126905093</v>
+        <v>0.02949529265504719</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>874758807.818305</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1665850071.20067</v>
+        <v>1652310882.483177</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06638360902361815</v>
+        <v>0.09293505622860866</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02928195013284213</v>
+        <v>0.03172059496871408</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>832925103.4093723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2727827219.830057</v>
+        <v>3546938520.22326</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08734312533169479</v>
+        <v>0.1208094779794292</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05089884957084995</v>
+        <v>0.04268854287272508</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1363913687.650592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>994497620.2548168</v>
+        <v>1471473888.956278</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1142843887930358</v>
+        <v>0.1414666818992734</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03495991644946719</v>
+        <v>0.04237694954292154</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>497248881.1429424</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3600248671.381185</v>
+        <v>4076475640.614286</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1082845283701942</v>
+        <v>0.09538526953512018</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03445177969035727</v>
+        <v>0.03722308674784926</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>22</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1800124330.48043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>952304660.9862821</v>
+        <v>1053906041.155703</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0890345571830226</v>
+        <v>0.121616523159269</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02929530287612557</v>
+        <v>0.02374889468942395</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>476152405.3477719</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1424564266.186984</v>
+        <v>1124495391.986397</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09625356363785927</v>
+        <v>0.09053854848141901</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02506981797187408</v>
+        <v>0.03452780273857093</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>712282209.029665</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3499537237.998971</v>
+        <v>3268601449.735838</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1092201702542102</v>
+        <v>0.1367137383091852</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02325872211605013</v>
+        <v>0.01648556150224411</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>18</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1749768653.918975</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2681148590.709586</v>
+        <v>3813605260.352729</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1301572158886463</v>
+        <v>0.1073770784741901</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04994366204695991</v>
+        <v>0.03251058371567837</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1340574278.787894</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4120941687.169701</v>
+        <v>3600587952.678189</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09256419058350922</v>
+        <v>0.1232939376770514</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03693712129822307</v>
+        <v>0.03210753735832438</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>35</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2060470851.945117</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1653269671.645733</v>
+        <v>2208088375.15395</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09177150818920131</v>
+        <v>0.09317192582647782</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03521489138819675</v>
+        <v>0.02665215407620475</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>826634833.687901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1057658220.803315</v>
+        <v>1158034734.966955</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1078102746716093</v>
+        <v>0.1087740190514243</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04399406148565629</v>
+        <v>0.0493427229826512</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>528829095.274693</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1187133858.247644</v>
+        <v>1356228940.862845</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1042340451749416</v>
+        <v>0.0824227245133268</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03706931659301924</v>
+        <v>0.03744016178553331</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>593566932.5888314</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1911256642.157607</v>
+        <v>2023146184.671538</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1717593432075718</v>
+        <v>0.1271077325545976</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05578030012909947</v>
+        <v>0.05023720772633711</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>22</v>
-      </c>
-      <c r="J33" t="n">
-        <v>955628409.3375274</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1222925171.687328</v>
+        <v>1057862976.09811</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1101650394161161</v>
+        <v>0.1186824805351179</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02054476369877915</v>
+        <v>0.02087655116661625</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>611462587.0527871</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>915915429.5519999</v>
+        <v>1189114432.209556</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1173336358317475</v>
+        <v>0.08295552974312186</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02872585487113116</v>
+        <v>0.0323740708203116</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>457957751.7058368</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1992933507.853921</v>
+        <v>3122054574.608981</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1800124768955251</v>
+        <v>0.1300516849278888</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02567294308140262</v>
+        <v>0.01887506316803633</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>996466816.445402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2493772117.049978</v>
+        <v>2359662575.563365</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08885872705273511</v>
+        <v>0.07703549381127663</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03111694114600013</v>
+        <v>0.039884497622846</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1246886153.658184</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1707267533.716206</v>
+        <v>2027020105.394788</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07491837427081588</v>
+        <v>0.1061476811130122</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02451302228998404</v>
+        <v>0.03306280555659552</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>853633786.7464443</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1975038776.086576</v>
+        <v>1455428796.524455</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1503823690723108</v>
+        <v>0.1794886278322909</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02586089391390176</v>
+        <v>0.03040746880008144</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>987519386.2882138</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1362487019.884248</v>
+        <v>1481487212.169151</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1514020928802433</v>
+        <v>0.1270827701431119</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05000130777850934</v>
+        <v>0.05801180641385693</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>681243510.471727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2566764515.626925</v>
+        <v>2797493252.917566</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1411317817681892</v>
+        <v>0.124895251792894</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04549790029754684</v>
+        <v>0.03452147293704118</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>19</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1283382276.445889</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4182118060.468615</v>
+        <v>4293270526.899245</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0836617674481392</v>
+        <v>0.107300919746952</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03026977745843357</v>
+        <v>0.04170684894182801</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>26</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2091059071.967492</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3073858230.262557</v>
+        <v>3041172645.286152</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1454135348734855</v>
+        <v>0.1848600819877803</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02323857784970861</v>
+        <v>0.02309070675048364</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>26</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1536929106.010923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1983009429.033508</v>
+        <v>2207163230.59024</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06364524438133184</v>
+        <v>0.1024178305436931</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03405855908051988</v>
+        <v>0.03417890242996103</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>991504817.3740089</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2256819625.967705</v>
+        <v>1706150943.265474</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1717127787918788</v>
+        <v>0.1585504360609901</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04893334809991277</v>
+        <v>0.04845426510978133</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1128409829.617955</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4395285978.034339</v>
+        <v>3966315966.512565</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1278210482805452</v>
+        <v>0.1318825861755505</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0392826795790084</v>
+        <v>0.0522899619249633</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>27</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2197642981.085899</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5144518790.319996</v>
+        <v>3617753891.681622</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1780902475543367</v>
+        <v>0.162939210936373</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04582378268682354</v>
+        <v>0.04877115522574885</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2572259459.094283</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4546630595.567399</v>
+        <v>3121454679.754496</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1012533649282913</v>
+        <v>0.09794261816764206</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03410440323086961</v>
+        <v>0.03777769250984321</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2273315300.299164</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1288307829.23951</v>
+        <v>1308399067.444404</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1234740028658726</v>
+        <v>0.1839156968228088</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04004466335960742</v>
+        <v>0.03383290789841795</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>644153979.4803261</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2628820948.639193</v>
+        <v>2578362970.353089</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1376535838671011</v>
+        <v>0.1129311111297234</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04772859011762114</v>
+        <v>0.04943608818629103</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>26</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1314410560.477622</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1190885374.360872</v>
+        <v>1108790842.066562</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1748233204523467</v>
+        <v>0.1667782092007225</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05185162758577131</v>
+        <v>0.04309791590876344</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>595442740.1350212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4436191404.731175</v>
+        <v>4053354501.900412</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1223762890292897</v>
+        <v>0.1150168481343111</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04862813581303765</v>
+        <v>0.05659028531560473</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>31</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2218095733.083968</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3340898526.8652</v>
+        <v>2962411948.202976</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1562348804494516</v>
+        <v>0.1289667657115861</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0328122933845444</v>
+        <v>0.02793375391028452</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>22</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1670449272.249072</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4517382348.988726</v>
+        <v>3601528948.95192</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1230072983550874</v>
+        <v>0.1284690696259274</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04925658263449537</v>
+        <v>0.05036089924801628</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>25</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2258691279.096477</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4509603031.926398</v>
+        <v>4991643226.431408</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1558136183019098</v>
+        <v>0.1757047782408742</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03157781686248139</v>
+        <v>0.0206670325512232</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>19</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2254801513.281022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1666166644.091451</v>
+        <v>1491913464.661691</v>
       </c>
       <c r="F56" t="n">
-        <v>0.137850812687845</v>
+        <v>0.1112352818705002</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05787408808378067</v>
+        <v>0.05751853264880638</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>833083339.6140709</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4024216883.617653</v>
+        <v>4130330573.457042</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1466819230082371</v>
+        <v>0.1374087454046146</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02733982462166421</v>
+        <v>0.01775779553291271</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>24</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2012108532.10177</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1758877121.431376</v>
+        <v>1540532874.917087</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1528561458533197</v>
+        <v>0.1739064399811952</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0363834075457144</v>
+        <v>0.03300984003379752</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>879438568.1436989</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4970007486.76217</v>
+        <v>3456403134.668321</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1275769858090389</v>
+        <v>0.121251893053099</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04554682500295028</v>
+        <v>0.03771151557218757</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>20</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2485003672.427013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3717894331.759194</v>
+        <v>3101226985.547395</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1634071876437383</v>
+        <v>0.1662659628756026</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02267682518949161</v>
+        <v>0.02430810665551073</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1858947311.4143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2731691731.574046</v>
+        <v>3241973639.422854</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1251484768609044</v>
+        <v>0.122506266014801</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0263351251564515</v>
+        <v>0.02572278010897508</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1365845871.463125</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1605396002.701906</v>
+        <v>1782807337.64582</v>
       </c>
       <c r="F62" t="n">
-        <v>0.162231038859593</v>
+        <v>0.1530056308376355</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03486360201580654</v>
+        <v>0.0475869851585182</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>802698000.1264837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3895483364.157823</v>
+        <v>3925203920.742031</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06680245418661702</v>
+        <v>0.08737061930687658</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04396944809083067</v>
+        <v>0.04023628864575018</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>21</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1947741749.04022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4425477808.084861</v>
+        <v>4607278071.525937</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1175465538976204</v>
+        <v>0.1784765502704251</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03445773216026499</v>
+        <v>0.03016253674974473</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>24</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2212738969.746089</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5802446759.839463</v>
+        <v>4720202376.421083</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1726233694700961</v>
+        <v>0.1500482149764415</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02233526111773849</v>
+        <v>0.02124306786237177</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>27</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2901223290.872043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4634333867.066226</v>
+        <v>4258420252.143064</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1350229088352405</v>
+        <v>0.1355664685190928</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03484108208207871</v>
+        <v>0.03969911261928261</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>22</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2317166941.008539</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2378764662.918067</v>
+        <v>2268275263.719136</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08083008265492583</v>
+        <v>0.07868694199457636</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03456070680468026</v>
+        <v>0.04865485336743593</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1189382402.221863</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4249272336.373922</v>
+        <v>5806017667.956264</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1416150460538249</v>
+        <v>0.1571384008309553</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05081752261569198</v>
+        <v>0.04656244018678299</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>24</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2124636178.996516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1521655861.755933</v>
+        <v>2332308611.149213</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1246873946117332</v>
+        <v>0.1487022085955423</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04571455242499463</v>
+        <v>0.04914505624107156</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>760827873.8941177</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2637722918.409877</v>
+        <v>2623219440.98448</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09464646596527213</v>
+        <v>0.09275148210692541</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04924310221582846</v>
+        <v>0.03792403890395801</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>21</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1318861412.545674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5470851485.279123</v>
+        <v>4362462531.608151</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1155336132310235</v>
+        <v>0.1557555484635204</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03118700837444336</v>
+        <v>0.02804480158113295</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>28</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2735425883.380143</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1717198942.471609</v>
+        <v>1876958818.079957</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1088463756900247</v>
+        <v>0.08632300780418814</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04982148761468147</v>
+        <v>0.03505076579428584</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>858599463.1097854</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2560086065.596173</v>
+        <v>2566392274.529176</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08272856356768507</v>
+        <v>0.1122242061761111</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04096447961511691</v>
+        <v>0.04405634584870068</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>29</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1280043068.966454</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3046013798.29355</v>
+        <v>3378859931.176112</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1568771131552867</v>
+        <v>0.1580823834411041</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02827750250836743</v>
+        <v>0.03077030170835038</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>26</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1523006960.494727</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1594833690.372015</v>
+        <v>2411652096.996836</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1669074844280173</v>
+        <v>0.1032089656182413</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03625756380402221</v>
+        <v>0.02752010110013588</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>797416847.2357388</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4303310452.848476</v>
+        <v>3650977026.006482</v>
       </c>
       <c r="F76" t="n">
-        <v>0.102980394294657</v>
+        <v>0.1097755341223798</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0232280097341744</v>
+        <v>0.02228088400931567</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>16</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2151655223.781738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2297744379.360452</v>
+        <v>1401554829.516164</v>
       </c>
       <c r="F77" t="n">
-        <v>0.112965089684589</v>
+        <v>0.1639276764719568</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02547080897918952</v>
+        <v>0.0289972307000296</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1148872295.059053</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4301419142.815928</v>
+        <v>2900182292.670983</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1278589530950603</v>
+        <v>0.1158325181557898</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03914945504498382</v>
+        <v>0.03749902242943014</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>27</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2150709515.464921</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1609156365.099297</v>
+        <v>1497629265.287476</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1576701378574804</v>
+        <v>0.1262232094960364</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04005005638298925</v>
+        <v>0.03533924319379397</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>804578235.7784873</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4777295612.190205</v>
+        <v>3558440181.72784</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0839422307871053</v>
+        <v>0.105611938913435</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0379062893736818</v>
+        <v>0.03443624092968704</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2388647844.125637</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3421870344.727931</v>
+        <v>3435626316.427247</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09710411836609814</v>
+        <v>0.1039750383197967</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02061444899200613</v>
+        <v>0.02454165578289314</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>17</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1710935114.011607</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4534099064.422465</v>
+        <v>5196688808.536194</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1344386984282719</v>
+        <v>0.2071175954004352</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02232172305923839</v>
+        <v>0.01797889990685577</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>27</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2267049542.062083</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1656307236.982838</v>
+        <v>1967825851.121393</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1043165768057836</v>
+        <v>0.1270488827128315</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03079477824775605</v>
+        <v>0.04238932021596039</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>828153560.9594945</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2552997328.795151</v>
+        <v>2419867986.015646</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1137165211865675</v>
+        <v>0.1049611850092513</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04918093549930796</v>
+        <v>0.03731831859295854</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1276498588.31665</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3333974255.843946</v>
+        <v>2972594815.413206</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1464676302049414</v>
+        <v>0.1494660666917838</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05550506703465642</v>
+        <v>0.03777169215486478</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>29</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1666987224.844386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2441150439.822139</v>
+        <v>2619796734.622905</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1359520283167682</v>
+        <v>0.106811188602205</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01944893179283636</v>
+        <v>0.01864105838198764</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1220575308.79967</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1217620136.76125</v>
+        <v>1216632107.368354</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1479107560349607</v>
+        <v>0.1537000994264635</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04210119834411104</v>
+        <v>0.03308964363599992</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>608810128.3913553</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2424785778.829032</v>
+        <v>3661467748.97962</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1736137003623782</v>
+        <v>0.1681414468839731</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02806787913947615</v>
+        <v>0.03552901482828391</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>29</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1212392862.949698</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2319318508.813321</v>
+        <v>2916344445.811221</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1213100452256059</v>
+        <v>0.1570668764047589</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0319337578372748</v>
+        <v>0.03294662326051758</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>26</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1159659342.323013</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2154646777.655484</v>
+        <v>1417680104.184933</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1340184644378478</v>
+        <v>0.1023837822899264</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03395760588742028</v>
+        <v>0.04453546076781707</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1077323487.28726</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1456390318.775976</v>
+        <v>1639741361.925186</v>
       </c>
       <c r="F91" t="n">
-        <v>0.186449104684719</v>
+        <v>0.1564566680856503</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04265348685324292</v>
+        <v>0.04694980814642851</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>728195204.0054263</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2076457396.969393</v>
+        <v>2299141429.178055</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08391217297684958</v>
+        <v>0.09628536049891187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03113158645212524</v>
+        <v>0.04099661006423684</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1038228650.343137</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3980960727.669058</v>
+        <v>4882459445.237964</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1359671791261722</v>
+        <v>0.127620644842556</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03308869369317085</v>
+        <v>0.0433711139895655</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>22</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1990480365.570413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1532188243.124329</v>
+        <v>2234733644.000733</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1622142709618231</v>
+        <v>0.1101913909368819</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04008274031965725</v>
+        <v>0.031538391227435</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>766094058.9072399</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2440066643.766601</v>
+        <v>2673458008.984226</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1342293836303033</v>
+        <v>0.1324759052780022</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04939721266437801</v>
+        <v>0.05158095749276098</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>17</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1220033362.270175</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1554573862.985399</v>
+        <v>1899594477.012538</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1090880379196372</v>
+        <v>0.112478053084126</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04416038416412619</v>
+        <v>0.04281359267287776</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>777286965.9338163</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3392510312.15195</v>
+        <v>5369295028.818869</v>
       </c>
       <c r="F97" t="n">
-        <v>0.165592662890453</v>
+        <v>0.1493012598966213</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02680866430888426</v>
+        <v>0.01962688126895774</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>25</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1696255163.485468</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2792551807.929699</v>
+        <v>3074827846.459621</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1213665512713775</v>
+        <v>0.1216188370134397</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03106962447209742</v>
+        <v>0.02760125861735045</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>20</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1396275874.500707</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3197058676.920527</v>
+        <v>3087363278.669862</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1016909291473372</v>
+        <v>0.103421668548732</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02831505940840869</v>
+        <v>0.02729734108987652</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>24</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1598529338.621212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4665443998.416101</v>
+        <v>4382050450.797968</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1134976052270309</v>
+        <v>0.1092916872408544</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01848947479375561</v>
+        <v>0.02157697665737989</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>23</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2332722122.900759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3350639386.443416</v>
+        <v>3512225530.589983</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2157760788568452</v>
+        <v>0.153764274997289</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04722579647857708</v>
+        <v>0.03865790565740929</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>33</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1675319828.535529</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_76.xlsx
+++ b/output/fit_clients/fit_round_76.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1914311216.538809</v>
+        <v>1555605116.963364</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09305919253217208</v>
+        <v>0.08923548029186365</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03335650088428241</v>
+        <v>0.03487582890449078</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1692905259.036577</v>
+        <v>1800039460.562344</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1672310347636705</v>
+        <v>0.1203841849590851</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04136058837055533</v>
+        <v>0.04701765742629632</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4555307605.870031</v>
+        <v>4999973546.956178</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1045529207236543</v>
+        <v>0.1052349821295795</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02878684979257438</v>
+        <v>0.02739459893661965</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3562655453.212298</v>
+        <v>3365552237.879912</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08900524546810906</v>
+        <v>0.0697383279872742</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03215995701991741</v>
+        <v>0.04223295347227619</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1845104585.253654</v>
+        <v>1769584397.268271</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1051912150141453</v>
+        <v>0.1311056688384242</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05398713671586076</v>
+        <v>0.04030407361365159</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2728897041.024724</v>
+        <v>2628288821.174417</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06202487363058049</v>
+        <v>0.0717305433129105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03931555699804093</v>
+        <v>0.04965198126953112</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3673409110.687751</v>
+        <v>3708035385.577278</v>
       </c>
       <c r="F8" t="n">
-        <v>0.180949061716459</v>
+        <v>0.1398523504061324</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02181670460774602</v>
+        <v>0.03059128982831849</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1508178908.201687</v>
+        <v>2139877132.908546</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1339457950867636</v>
+        <v>0.1249988411737143</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0335811387941547</v>
+        <v>0.03581098005176551</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3860920887.929478</v>
+        <v>4377594271.026917</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2004388776787541</v>
+        <v>0.1555657229911551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03543761542215434</v>
+        <v>0.04699835745530478</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3480724787.814903</v>
+        <v>3166021980.576725</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1631117821775545</v>
+        <v>0.1187970413469136</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03817811203470106</v>
+        <v>0.0444339150365495</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2377131264.602011</v>
+        <v>2978743451.513262</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1665368353998957</v>
+        <v>0.1218626688984254</v>
       </c>
       <c r="G12" t="n">
-        <v>0.045729029160416</v>
+        <v>0.03356572224212546</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5319713047.880425</v>
+        <v>4819125464.259439</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06275928364827488</v>
+        <v>0.100532318677027</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02740074017039345</v>
+        <v>0.02578610961366057</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3053181815.165947</v>
+        <v>3274172395.571027</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1493977071751615</v>
+        <v>0.1781503250829584</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03440387736221167</v>
+        <v>0.03560418210693995</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1316007603.069161</v>
+        <v>1743678610.678731</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1012814864666668</v>
+        <v>0.1050899553096201</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03065949670259269</v>
+        <v>0.03392074558162432</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1966636650.241057</v>
+        <v>2200778375.936357</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07746120831079786</v>
+        <v>0.08536259867617177</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03425728262685033</v>
+        <v>0.03645957395419204</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5232878277.466172</v>
+        <v>3500268968.240661</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1616559515787808</v>
+        <v>0.1618409370367435</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04948350354253157</v>
+        <v>0.03985386077954523</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3981784613.978834</v>
+        <v>3671937741.440161</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1609751834697505</v>
+        <v>0.1225290383583122</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02901800508721632</v>
+        <v>0.03189658058827698</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1243635679.615809</v>
+        <v>1247148725.940923</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1562883236346944</v>
+        <v>0.168558728864354</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02737727229841644</v>
+        <v>0.0224044615060043</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2699644729.912809</v>
+        <v>2021980242.550785</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1131456049896373</v>
+        <v>0.1168622672319012</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02949529265504719</v>
+        <v>0.02961557667948446</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1652310882.483177</v>
+        <v>2622122768.117667</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09293505622860866</v>
+        <v>0.09237813467633874</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03172059496871408</v>
+        <v>0.03564945220518281</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3546938520.22326</v>
+        <v>3646268848.232336</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1208094779794292</v>
+        <v>0.1296609887244372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04268854287272508</v>
+        <v>0.03751900641758891</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1471473888.956278</v>
+        <v>1397263556.577245</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1414666818992734</v>
+        <v>0.1200909005300007</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04237694954292154</v>
+        <v>0.04179912595082479</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4076475640.614286</v>
+        <v>3391431652.146514</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09538526953512018</v>
+        <v>0.1356192860866985</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03722308674784926</v>
+        <v>0.02798335763765977</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1053906041.155703</v>
+        <v>1285749149.135407</v>
       </c>
       <c r="F25" t="n">
-        <v>0.121616523159269</v>
+        <v>0.07456361682794975</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02374889468942395</v>
+        <v>0.02009891666885379</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1124495391.986397</v>
+        <v>1229530496.978625</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09053854848141901</v>
+        <v>0.08673002404072087</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03452780273857093</v>
+        <v>0.03346847056969696</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3268601449.735838</v>
+        <v>3907084725.641828</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1367137383091852</v>
+        <v>0.1139539927165595</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01648556150224411</v>
+        <v>0.01952108801196326</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3813605260.352729</v>
+        <v>3650584028.550501</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1073770784741901</v>
+        <v>0.1110484634027785</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03251058371567837</v>
+        <v>0.04980004868516581</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3600587952.678189</v>
+        <v>4185163588.640206</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1232939376770514</v>
+        <v>0.1056234970054363</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03210753735832438</v>
+        <v>0.03313492614486465</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2208088375.15395</v>
+        <v>1533311998.896547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09317192582647782</v>
+        <v>0.1031872709629484</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02665215407620475</v>
+        <v>0.03079112420746716</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1158034734.966955</v>
+        <v>970456082.6365635</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1087740190514243</v>
+        <v>0.08128331294434558</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0493427229826512</v>
+        <v>0.0509719271117326</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1356228940.862845</v>
+        <v>1314334084.100474</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0824227245133268</v>
+        <v>0.1084157194902913</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03744016178553331</v>
+        <v>0.03467425044927391</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2023146184.671538</v>
+        <v>2422435412.619973</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1271077325545976</v>
+        <v>0.1424629183122657</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05023720772633711</v>
+        <v>0.03753674637001272</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1057862976.09811</v>
+        <v>1339951223.550604</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1186824805351179</v>
+        <v>0.1217764380120753</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02087655116661625</v>
+        <v>0.01768103019028313</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1189114432.209556</v>
+        <v>1338467524.991679</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08295552974312186</v>
+        <v>0.105565484020879</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0323740708203116</v>
+        <v>0.04328796914649909</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3122054574.608981</v>
+        <v>2279858651.030319</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1300516849278888</v>
+        <v>0.1282363928356336</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01887506316803633</v>
+        <v>0.01909953702955473</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2359662575.563365</v>
+        <v>2090278471.533142</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07703549381127663</v>
+        <v>0.09868307945841222</v>
       </c>
       <c r="G37" t="n">
-        <v>0.039884497622846</v>
+        <v>0.03526457372333464</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2027020105.394788</v>
+        <v>1387662160.908535</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1061476811130122</v>
+        <v>0.1025700346593224</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03306280555659552</v>
+        <v>0.02746274786752606</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1455428796.524455</v>
+        <v>1998567710.024147</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1794886278322909</v>
+        <v>0.1296059805066937</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03040746880008144</v>
+        <v>0.03278684592335311</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1481487212.169151</v>
+        <v>1650750417.847099</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1270827701431119</v>
+        <v>0.1325227138905636</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05801180641385693</v>
+        <v>0.05423428099379071</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2797493252.917566</v>
+        <v>1959861637.458566</v>
       </c>
       <c r="F41" t="n">
-        <v>0.124895251792894</v>
+        <v>0.152092938851611</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03452147293704118</v>
+        <v>0.0416104568652879</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4293270526.899245</v>
+        <v>3739108522.352972</v>
       </c>
       <c r="F42" t="n">
-        <v>0.107300919746952</v>
+        <v>0.0864808118867222</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04170684894182801</v>
+        <v>0.03422003326371852</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3041172645.286152</v>
+        <v>2074989203.145515</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1848600819877803</v>
+        <v>0.1718260862604714</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02309070675048364</v>
+        <v>0.01889008764508745</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2207163230.59024</v>
+        <v>1522084997.627085</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1024178305436931</v>
+        <v>0.0637311158446985</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03417890242996103</v>
+        <v>0.02247340990220274</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1706150943.265474</v>
+        <v>2016429296.055212</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1585504360609901</v>
+        <v>0.1361458087698771</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04845426510978133</v>
+        <v>0.04351912277529889</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3966315966.512565</v>
+        <v>3934176529.729463</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1318825861755505</v>
+        <v>0.144669371075288</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0522899619249633</v>
+        <v>0.05964200320425411</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3617753891.681622</v>
+        <v>4118846611.836591</v>
       </c>
       <c r="F47" t="n">
-        <v>0.162939210936373</v>
+        <v>0.1928079845404008</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04877115522574885</v>
+        <v>0.0380690001687953</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3121454679.754496</v>
+        <v>3625723385.126833</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09794261816764206</v>
+        <v>0.08723064768005744</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03777769250984321</v>
+        <v>0.03034722375881026</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1308399067.444404</v>
+        <v>1655046599.812098</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1839156968228088</v>
+        <v>0.1545094703752092</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03383290789841795</v>
+        <v>0.0310211787583904</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2578362970.353089</v>
+        <v>2726214621.829026</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1129311111297234</v>
+        <v>0.1645245312280678</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04943608818629103</v>
+        <v>0.04748068440577351</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1108790842.066562</v>
+        <v>1116161813.197473</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1667782092007225</v>
+        <v>0.1774127190581997</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04309791590876344</v>
+        <v>0.04953764735044882</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4053354501.900412</v>
+        <v>4866858089.134002</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1150168481343111</v>
+        <v>0.09550275556746168</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05659028531560473</v>
+        <v>0.05780981163033732</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2962411948.202976</v>
+        <v>3727592542.625041</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1289667657115861</v>
+        <v>0.1693676890031501</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02793375391028452</v>
+        <v>0.02331625690541333</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3601528948.95192</v>
+        <v>4583078506.593094</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1284690696259274</v>
+        <v>0.1213850786310426</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05036089924801628</v>
+        <v>0.04034625662076634</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4991643226.431408</v>
+        <v>4734144597.360073</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1757047782408742</v>
+        <v>0.1494939440543815</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0206670325512232</v>
+        <v>0.02256842300561259</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1491913464.661691</v>
+        <v>1326317716.133249</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1112352818705002</v>
+        <v>0.1256137362790047</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05751853264880638</v>
+        <v>0.0518874103555206</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4130330573.457042</v>
+        <v>3453960297.233132</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1374087454046146</v>
+        <v>0.1381840466787784</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01775779553291271</v>
+        <v>0.02103993834987523</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1540532874.917087</v>
+        <v>1196873497.163167</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1739064399811952</v>
+        <v>0.1637008170207022</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03300984003379752</v>
+        <v>0.03727150193864207</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3456403134.668321</v>
+        <v>3752339830.596898</v>
       </c>
       <c r="F59" t="n">
-        <v>0.121251893053099</v>
+        <v>0.08299222711738026</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03771151557218757</v>
+        <v>0.04895806360139568</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3101226985.547395</v>
+        <v>3785060921.014094</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1662659628756026</v>
+        <v>0.2064044929660528</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02430810665551073</v>
+        <v>0.02801229579042476</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3241973639.422854</v>
+        <v>2892898132.365687</v>
       </c>
       <c r="F61" t="n">
-        <v>0.122506266014801</v>
+        <v>0.1385537928031336</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02572278010897508</v>
+        <v>0.02102792720973067</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1782807337.64582</v>
+        <v>1801475291.756824</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1530056308376355</v>
+        <v>0.1402711443414456</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0475869851585182</v>
+        <v>0.03840568878827881</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3925203920.742031</v>
+        <v>4834874326.491562</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08737061930687658</v>
+        <v>0.08930987402238696</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04023628864575018</v>
+        <v>0.04592564793290237</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4607278071.525937</v>
+        <v>3468292657.335928</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1784765502704251</v>
+        <v>0.1611415149630705</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03016253674974473</v>
+        <v>0.02244671650452476</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4720202376.421083</v>
+        <v>4385275875.990497</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1500482149764415</v>
+        <v>0.1189696412520994</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02124306786237177</v>
+        <v>0.03162734582223932</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4258420252.143064</v>
+        <v>4067799099.971653</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1355664685190928</v>
+        <v>0.101510290535834</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03969911261928261</v>
+        <v>0.03768983999993976</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2268275263.719136</v>
+        <v>2132838893.133775</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07868694199457636</v>
+        <v>0.08793430725588872</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04865485336743593</v>
+        <v>0.03687977182299945</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5806017667.956264</v>
+        <v>5021604700.738145</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1571384008309553</v>
+        <v>0.1347568567908075</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04656244018678299</v>
+        <v>0.04827456106743151</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2332308611.149213</v>
+        <v>1951227986.267404</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1487022085955423</v>
+        <v>0.1807568980978809</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04914505624107156</v>
+        <v>0.04598204001407183</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2623219440.98448</v>
+        <v>2399223935.434148</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09275148210692541</v>
+        <v>0.08117754697899728</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03792403890395801</v>
+        <v>0.0405021996862236</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4362462531.608151</v>
+        <v>3883383829.230252</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1557555484635204</v>
+        <v>0.1368628761813186</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02804480158113295</v>
+        <v>0.03111092044965127</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1876958818.079957</v>
+        <v>1410449789.161382</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08632300780418814</v>
+        <v>0.07230021018306636</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03505076579428584</v>
+        <v>0.03697936073025419</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2566392274.529176</v>
+        <v>2235650511.159956</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1122242061761111</v>
+        <v>0.06928937694705291</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04405634584870068</v>
+        <v>0.03970485800653097</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3378859931.176112</v>
+        <v>2661315301.999121</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1580823834411041</v>
+        <v>0.138908488900665</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03077030170835038</v>
+        <v>0.02695476264552545</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2411652096.996836</v>
+        <v>2294657582.921223</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1032089656182413</v>
+        <v>0.116126551577891</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02752010110013588</v>
+        <v>0.03690311467811223</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3650977026.006482</v>
+        <v>5143297427.571721</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1097755341223798</v>
+        <v>0.1157400304106345</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02228088400931567</v>
+        <v>0.02434232987948852</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1401554829.516164</v>
+        <v>2183231550.992259</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1639276764719568</v>
+        <v>0.1651575403167399</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0289972307000296</v>
+        <v>0.02466768157665619</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2900182292.670983</v>
+        <v>4513783002.994531</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1158325181557898</v>
+        <v>0.0949103538421107</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03749902242943014</v>
+        <v>0.04739427964897947</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1497629265.287476</v>
+        <v>1889954826.032923</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1262232094960364</v>
+        <v>0.1410801763895101</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03533924319379397</v>
+        <v>0.02941323900137715</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3558440181.72784</v>
+        <v>4833382368.604569</v>
       </c>
       <c r="F80" t="n">
-        <v>0.105611938913435</v>
+        <v>0.09260627496871568</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03443624092968704</v>
+        <v>0.03309551050389914</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3435626316.427247</v>
+        <v>4015159841.649103</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1039750383197967</v>
+        <v>0.1092840322517025</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02454165578289314</v>
+        <v>0.02922996039496895</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5196688808.536194</v>
+        <v>3462789346.291199</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2071175954004352</v>
+        <v>0.199284619983901</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01797889990685577</v>
+        <v>0.02557062444547665</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1967825851.121393</v>
+        <v>1916199801.893326</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1270488827128315</v>
+        <v>0.1505001392276335</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04238932021596039</v>
+        <v>0.03505269758729036</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2419867986.015646</v>
+        <v>2300604618.733724</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1049611850092513</v>
+        <v>0.114261158311696</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03731831859295854</v>
+        <v>0.03324340745068891</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2972594815.413206</v>
+        <v>2555374446.174727</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1494660666917838</v>
+        <v>0.1414482406782108</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03777169215486478</v>
+        <v>0.05684328911914719</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2619796734.622905</v>
+        <v>2612662141.404629</v>
       </c>
       <c r="F86" t="n">
-        <v>0.106811188602205</v>
+        <v>0.1366350036752835</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01864105838198764</v>
+        <v>0.0171713866123742</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1216632107.368354</v>
+        <v>1050985796.93179</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1537000994264635</v>
+        <v>0.1330647412941853</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03308964363599992</v>
+        <v>0.03231121439023816</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3661467748.97962</v>
+        <v>3435897530.602635</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1681414468839731</v>
+        <v>0.1536279155863279</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03552901482828391</v>
+        <v>0.03453853836988762</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2916344445.811221</v>
+        <v>3364559996.367179</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1570668764047589</v>
+        <v>0.1068232120641061</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03294662326051758</v>
+        <v>0.03366694670395182</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1417680104.184933</v>
+        <v>1607150631.009695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1023837822899264</v>
+        <v>0.1357987660621109</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04453546076781707</v>
+        <v>0.04762170884586074</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1639741361.925186</v>
+        <v>1974466652.070165</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1564566680856503</v>
+        <v>0.1237436795246953</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04694980814642851</v>
+        <v>0.04142287772555567</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2299141429.178055</v>
+        <v>2464900414.375873</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09628536049891187</v>
+        <v>0.06826152379819339</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04099661006423684</v>
+        <v>0.03625911485375321</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4882459445.237964</v>
+        <v>3231613720.737951</v>
       </c>
       <c r="F93" t="n">
-        <v>0.127620644842556</v>
+        <v>0.09317426585612915</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0433711139895655</v>
+        <v>0.03697180431999831</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2234733644.000733</v>
+        <v>2076400940.474186</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1101913909368819</v>
+        <v>0.1028979291170657</v>
       </c>
       <c r="G94" t="n">
-        <v>0.031538391227435</v>
+        <v>0.02874064132285613</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2673458008.984226</v>
+        <v>2046923419.890712</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1324759052780022</v>
+        <v>0.1350072976309643</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05158095749276098</v>
+        <v>0.05276203744492047</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1899594477.012538</v>
+        <v>2272054245.292061</v>
       </c>
       <c r="F96" t="n">
-        <v>0.112478053084126</v>
+        <v>0.1167150634152568</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04281359267287776</v>
+        <v>0.0355976071991937</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5369295028.818869</v>
+        <v>3549850699.128914</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1493012598966213</v>
+        <v>0.1563004216949408</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01962688126895774</v>
+        <v>0.01758240478526771</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3074827846.459621</v>
+        <v>3239391577.829272</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1216188370134397</v>
+        <v>0.1301562007708651</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02760125861735045</v>
+        <v>0.02467062674436268</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3087363278.669862</v>
+        <v>2432495781.357474</v>
       </c>
       <c r="F99" t="n">
-        <v>0.103421668548732</v>
+        <v>0.1254954743023355</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02729734108987652</v>
+        <v>0.02945285568609207</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4382050450.797968</v>
+        <v>3040154637.994905</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1092916872408544</v>
+        <v>0.155709698132327</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02157697665737989</v>
+        <v>0.0245410546834928</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3512225530.589983</v>
+        <v>2609275770.334465</v>
       </c>
       <c r="F101" t="n">
-        <v>0.153764274997289</v>
+        <v>0.1669462321205335</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03865790565740929</v>
+        <v>0.04737122137982851</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_76.xlsx
+++ b/output/fit_clients/fit_round_76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1555605116.963364</v>
+        <v>2186993015.076226</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08923548029186365</v>
+        <v>0.1040742344661774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03487582890449078</v>
+        <v>0.03069292780033453</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1800039460.562344</v>
+        <v>2132206969.649833</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1203841849590851</v>
+        <v>0.1594402275378924</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04701765742629632</v>
+        <v>0.04827486419994793</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4999973546.956178</v>
+        <v>4880339229.620746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1052349821295795</v>
+        <v>0.132630123854959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02739459893661965</v>
+        <v>0.02801868327760942</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>182.4842161451037</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3365552237.879912</v>
+        <v>3001443989.224308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0697383279872742</v>
+        <v>0.08381645515774908</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04223295347227619</v>
+        <v>0.03354096988018061</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>99.41357959800075</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1769584397.268271</v>
+        <v>2406947495.398036</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1311056688384242</v>
+        <v>0.1037740418106198</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04030407361365159</v>
+        <v>0.04442753246825052</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2628288821.174417</v>
+        <v>1968933945.895433</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0717305433129105</v>
+        <v>0.08833554263110122</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04965198126953112</v>
+        <v>0.04703727280021996</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3708035385.577278</v>
+        <v>3719396857.775482</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1398523504061324</v>
+        <v>0.1908233636817557</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03059128982831849</v>
+        <v>0.03006012090082681</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>76</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2139877132.908546</v>
+        <v>1564718262.765882</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1249988411737143</v>
+        <v>0.1595334516020513</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03581098005176551</v>
+        <v>0.03382169128385281</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4377594271.026917</v>
+        <v>4455038898.703533</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1555657229911551</v>
+        <v>0.1727509740363828</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04699835745530478</v>
+        <v>0.04245779119704803</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70</v>
+      </c>
+      <c r="J10" t="n">
+        <v>76</v>
+      </c>
+      <c r="K10" t="n">
+        <v>202.3075642785801</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3166021980.576725</v>
+        <v>3856640651.989502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1187970413469136</v>
+        <v>0.1437972408716639</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0444339150365495</v>
+        <v>0.04294523380872969</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J11" t="n">
+        <v>76</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2978743451.513262</v>
+        <v>3181732827.453742</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1218626688984254</v>
+        <v>0.144354520811642</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03356572224212546</v>
+        <v>0.05176290462923985</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4819125464.259439</v>
+        <v>4746575147.573911</v>
       </c>
       <c r="F13" t="n">
-        <v>0.100532318677027</v>
+        <v>0.09958304729028809</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02578610961366057</v>
+        <v>0.03135241230439129</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>39</v>
+      </c>
+      <c r="J13" t="n">
+        <v>75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>178.0162278850264</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3274172395.571027</v>
+        <v>2512286651.639225</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1781503250829584</v>
+        <v>0.1327319017712023</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03560418210693995</v>
+        <v>0.0422483708784378</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>74</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1743678610.678731</v>
+        <v>1251468242.236186</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1050899553096201</v>
+        <v>0.107268678001156</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03392074558162432</v>
+        <v>0.04031376973507655</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2200778375.936357</v>
+        <v>2298436530.813114</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08536259867617177</v>
+        <v>0.07826013491187428</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03645957395419204</v>
+        <v>0.03962946306425711</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3500268968.240661</v>
+        <v>4016576820.956707</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1618409370367435</v>
+        <v>0.1428725725063262</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03985386077954523</v>
+        <v>0.04660340282663234</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>36</v>
+      </c>
+      <c r="J17" t="n">
+        <v>76</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3671937741.440161</v>
+        <v>3020292602.613216</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1225290383583122</v>
+        <v>0.1691786320627392</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03189658058827698</v>
+        <v>0.03126057074627486</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>89.30314105029034</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1247148725.940923</v>
+        <v>1019654304.572754</v>
       </c>
       <c r="F19" t="n">
-        <v>0.168558728864354</v>
+        <v>0.1638718186607311</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0224044615060043</v>
+        <v>0.02543479748602488</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2021980242.550785</v>
+        <v>2173647452.901777</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1168622672319012</v>
+        <v>0.1515284022845872</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02961557667948446</v>
+        <v>0.02140209255401605</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2622122768.117667</v>
+        <v>2387094901.413676</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09237813467633874</v>
+        <v>0.09469431522745045</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03564945220518281</v>
+        <v>0.03758253981314213</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3646268848.232336</v>
+        <v>3682359691.996261</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1296609887244372</v>
+        <v>0.09844695125217148</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03751900641758891</v>
+        <v>0.04635464266865753</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>122.9965159307307</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1397263556.577245</v>
+        <v>1227158666.257644</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1200909005300007</v>
+        <v>0.1570295686340175</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04179912595082479</v>
+        <v>0.04356374657536565</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3391431652.146514</v>
+        <v>2627865462.28135</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1356192860866985</v>
+        <v>0.1144911062743202</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02798335763765977</v>
+        <v>0.03569158440977308</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>65.31406326036701</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1285749149.135407</v>
+        <v>1245218322.487786</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07456361682794975</v>
+        <v>0.1052792159748799</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02009891666885379</v>
+        <v>0.02657659149358395</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1355,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1229530496.978625</v>
+        <v>1332144405.00652</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08673002404072087</v>
+        <v>0.07812370245289213</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03346847056969696</v>
+        <v>0.0245948464359149</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3907084725.641828</v>
+        <v>3997911525.201927</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1139539927165595</v>
+        <v>0.1449196069458992</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01952108801196326</v>
+        <v>0.02615413195437131</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30</v>
+      </c>
+      <c r="J27" t="n">
+        <v>75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>134.4038545483473</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3650584028.550501</v>
+        <v>3270304461.842687</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1110484634027785</v>
+        <v>0.1085716078915519</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04980004868516581</v>
+        <v>0.04738676187947673</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>73</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4185163588.640206</v>
+        <v>4911137892.844855</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1056234970054363</v>
+        <v>0.1203059906226787</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03313492614486465</v>
+        <v>0.03307214888179016</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>70</v>
+      </c>
+      <c r="J29" t="n">
+        <v>76</v>
+      </c>
+      <c r="K29" t="n">
+        <v>210.8918448815724</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1499,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1533311998.896547</v>
+        <v>1704247417.762162</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1031872709629484</v>
+        <v>0.1013715826482269</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03079112420746716</v>
+        <v>0.03261689281759845</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>970456082.6365635</v>
+        <v>1179752649.857108</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08128331294434558</v>
+        <v>0.07344724940540043</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0509719271117326</v>
+        <v>0.03928375035970452</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1314334084.100474</v>
+        <v>1242644367.385239</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1084157194902913</v>
+        <v>0.085714823048024</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03467425044927391</v>
+        <v>0.02653053658799315</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1604,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2422435412.619973</v>
+        <v>2127714266.674298</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1424629183122657</v>
+        <v>0.1883348013826046</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03753674637001272</v>
+        <v>0.03913770026845893</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1339951223.550604</v>
+        <v>1314777357.825763</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1217764380120753</v>
+        <v>0.08397299756919721</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01768103019028313</v>
+        <v>0.02549442431864806</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1338467524.991679</v>
+        <v>1341442274.899608</v>
       </c>
       <c r="F35" t="n">
-        <v>0.105565484020879</v>
+        <v>0.0866615503711318</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04328796914649909</v>
+        <v>0.04298772289167914</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2279858651.030319</v>
+        <v>2125450476.956038</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1282363928356336</v>
+        <v>0.1746582897150556</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01909953702955473</v>
+        <v>0.02144739815938005</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2090278471.533142</v>
+        <v>2115579178.915421</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09868307945841222</v>
+        <v>0.1088782849275228</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03526457372333464</v>
+        <v>0.03481963041585048</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1387662160.908535</v>
+        <v>1439525357.051082</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1025700346593224</v>
+        <v>0.09998516993444871</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02746274786752606</v>
+        <v>0.03673415895676514</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1998567710.024147</v>
+        <v>1441447572.551534</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1296059805066937</v>
+        <v>0.1845473385750275</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03278684592335311</v>
+        <v>0.02904232741408039</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1849,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1650750417.847099</v>
+        <v>1480934288.734855</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1325227138905636</v>
+        <v>0.1046877429035778</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05423428099379071</v>
+        <v>0.04029624703567317</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1959861637.458566</v>
+        <v>2775717944.686412</v>
       </c>
       <c r="F41" t="n">
-        <v>0.152092938851611</v>
+        <v>0.1246104321956423</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0416104568652879</v>
+        <v>0.04460442655852997</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1913,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3739108522.352972</v>
+        <v>3318728288.013911</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0864808118867222</v>
+        <v>0.09720225868767472</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03422003326371852</v>
+        <v>0.04257412290547118</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>29</v>
+      </c>
+      <c r="J42" t="n">
+        <v>75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>109.878732775443</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2074989203.145515</v>
+        <v>2159804408.621414</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1718260862604714</v>
+        <v>0.144059938294317</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01889008764508745</v>
+        <v>0.02190140910447918</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1522084997.627085</v>
+        <v>1991701718.60318</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0637311158446985</v>
+        <v>0.06202591068195214</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02247340990220274</v>
+        <v>0.03702213130699663</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2016429296.055212</v>
+        <v>2271698445.358659</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1361458087698771</v>
+        <v>0.1283114064313481</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04351912277529889</v>
+        <v>0.04549807032895452</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3934176529.729463</v>
+        <v>5361443694.972151</v>
       </c>
       <c r="F46" t="n">
-        <v>0.144669371075288</v>
+        <v>0.1687196169201666</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05964200320425411</v>
+        <v>0.04764841472536244</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>44</v>
+      </c>
+      <c r="J46" t="n">
+        <v>76</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4118846611.836591</v>
+        <v>3727328232.664985</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1928079845404008</v>
+        <v>0.1970085454007318</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0380690001687953</v>
+        <v>0.05431853056623294</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>34</v>
+      </c>
+      <c r="J47" t="n">
+        <v>75</v>
+      </c>
+      <c r="K47" t="n">
+        <v>117.1620808208683</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2133,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3625723385.126833</v>
+        <v>3477765253.755662</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08723064768005744</v>
+        <v>0.1020153413193017</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03034722375881026</v>
+        <v>0.02632337727766057</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>28</v>
+      </c>
+      <c r="J48" t="n">
+        <v>74</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1655046599.812098</v>
+        <v>1332712868.339127</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1545094703752092</v>
+        <v>0.1713995168414186</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0310211787583904</v>
+        <v>0.04097301911387317</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2726214621.829026</v>
+        <v>3451072394.977312</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1645245312280678</v>
+        <v>0.1290984463263683</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04748068440577351</v>
+        <v>0.03514136646661466</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>74</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1116161813.197473</v>
+        <v>1357133199.656067</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1774127190581997</v>
+        <v>0.1583786392301053</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04953764735044882</v>
+        <v>0.05264835826913754</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4866858089.134002</v>
+        <v>4360875984.858588</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09550275556746168</v>
+        <v>0.1058884684428123</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05780981163033732</v>
+        <v>0.05636444659263089</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>59</v>
+      </c>
+      <c r="J52" t="n">
+        <v>76</v>
+      </c>
+      <c r="K52" t="n">
+        <v>189.68099419638</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3727592542.625041</v>
+        <v>3072639426.089878</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1693676890031501</v>
+        <v>0.1839887918826917</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02331625690541333</v>
+        <v>0.02171556372546886</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2345,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4583078506.593094</v>
+        <v>3867045194.09765</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1213850786310426</v>
+        <v>0.1469361228575883</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04034625662076634</v>
+        <v>0.04467865599947206</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>34</v>
+      </c>
+      <c r="J54" t="n">
+        <v>76</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2380,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4734144597.360073</v>
+        <v>3158779715.60365</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1494939440543815</v>
+        <v>0.2227493531145687</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02256842300561259</v>
+        <v>0.02749496388312184</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>35</v>
+      </c>
+      <c r="J55" t="n">
+        <v>74</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1326317716.133249</v>
+        <v>1329318946.772422</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1256137362790047</v>
+        <v>0.1337164289009704</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0518874103555206</v>
+        <v>0.04997646982266297</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2444,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3453960297.233132</v>
+        <v>4375631231.352845</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1381840466787784</v>
+        <v>0.1541987784008447</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02103993834987523</v>
+        <v>0.01689889156591373</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>75</v>
+      </c>
+      <c r="K57" t="n">
+        <v>174.0476337870243</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1196873497.163167</v>
+        <v>1681491932.113689</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1637008170207022</v>
+        <v>0.1827289028602657</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03727150193864207</v>
+        <v>0.03011474092690778</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2522,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3752339830.596898</v>
+        <v>3859021308.00657</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08299222711738026</v>
+        <v>0.1060240515660999</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04895806360139568</v>
+        <v>0.03707540750037884</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>37</v>
+      </c>
+      <c r="J59" t="n">
+        <v>75</v>
+      </c>
+      <c r="K59" t="n">
+        <v>133.4400011769199</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3785060921.014094</v>
+        <v>3773167035.56833</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2064044929660528</v>
+        <v>0.1602991650458082</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02801229579042476</v>
+        <v>0.02175670866423355</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2892898132.365687</v>
+        <v>2675377476.722913</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1385537928031336</v>
+        <v>0.1325860396256336</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02102792720973067</v>
+        <v>0.02371787021203112</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1801475291.756824</v>
+        <v>1324577235.033103</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1402711443414456</v>
+        <v>0.1930024699482466</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03840568878827881</v>
+        <v>0.03560225710099058</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2664,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4834874326.491562</v>
+        <v>5574239208.476302</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08930987402238696</v>
+        <v>0.093906895307433</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04592564793290237</v>
+        <v>0.04322374074463525</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>37</v>
+      </c>
+      <c r="J63" t="n">
+        <v>76</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3468292657.335928</v>
+        <v>4638576186.136489</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1611415149630705</v>
+        <v>0.1525461040083083</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02244671650452476</v>
+        <v>0.03278069876918386</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>37</v>
+      </c>
+      <c r="J64" t="n">
+        <v>76</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4385275875.990497</v>
+        <v>5682133457.348107</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1189696412520994</v>
+        <v>0.1091523509438253</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03162734582223932</v>
+        <v>0.02091055824050335</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>60</v>
+      </c>
+      <c r="J65" t="n">
+        <v>76</v>
+      </c>
+      <c r="K65" t="n">
+        <v>183.8169535166629</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4067799099.971653</v>
+        <v>5711033185.936103</v>
       </c>
       <c r="F66" t="n">
-        <v>0.101510290535834</v>
+        <v>0.1269116837316143</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03768983999993976</v>
+        <v>0.04402559172172914</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>37</v>
+      </c>
+      <c r="J66" t="n">
+        <v>76</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2132838893.133775</v>
+        <v>2742937303.447173</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08793430725588872</v>
+        <v>0.0869868096003787</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03687977182299945</v>
+        <v>0.03726561067533083</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5021604700.738145</v>
+        <v>4960132376.489551</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1347568567908075</v>
+        <v>0.1376649185846954</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04827456106743151</v>
+        <v>0.04353253591655613</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>38</v>
+      </c>
+      <c r="J68" t="n">
+        <v>75</v>
+      </c>
+      <c r="K68" t="n">
+        <v>170.582869512497</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1951227986.267404</v>
+        <v>1934810494.997123</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1807568980978809</v>
+        <v>0.1318992342689868</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04598204001407183</v>
+        <v>0.05952389655760491</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2399223935.434148</v>
+        <v>2982393029.593012</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08117754697899728</v>
+        <v>0.07626922602998523</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0405021996862236</v>
+        <v>0.03254297510615991</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3883383829.230252</v>
+        <v>4636741715.684232</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1368628761813186</v>
+        <v>0.1285255249350668</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03111092044965127</v>
+        <v>0.03009953627626594</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>63</v>
+      </c>
+      <c r="J71" t="n">
+        <v>76</v>
+      </c>
+      <c r="K71" t="n">
+        <v>185.6663570348058</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1410449789.161382</v>
+        <v>1698033076.198479</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07230021018306636</v>
+        <v>0.09319959876903507</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03697936073025419</v>
+        <v>0.03378360148289993</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2235650511.159956</v>
+        <v>2939265369.780495</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06928937694705291</v>
+        <v>0.06835340975806811</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03970485800653097</v>
+        <v>0.04994637485741836</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2661315301.999121</v>
+        <v>2485404591.64247</v>
       </c>
       <c r="F74" t="n">
-        <v>0.138908488900665</v>
+        <v>0.1330691164437787</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02695476264552545</v>
+        <v>0.02429811156334277</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>22</v>
+      </c>
+      <c r="J74" t="n">
+        <v>74</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2294657582.921223</v>
+        <v>1818592741.777216</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116126551577891</v>
+        <v>0.1523879574611224</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03690311467811223</v>
+        <v>0.02404802791029842</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5143297427.571721</v>
+        <v>4480691874.837798</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1157400304106345</v>
+        <v>0.1062985707591203</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02434232987948852</v>
+        <v>0.03075873803321143</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>35</v>
+      </c>
+      <c r="J76" t="n">
+        <v>75</v>
+      </c>
+      <c r="K76" t="n">
+        <v>146.8004012829047</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2183231550.992259</v>
+        <v>1835343509.327945</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1651575403167399</v>
+        <v>0.1343922398465248</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02466768157665619</v>
+        <v>0.02538621641851873</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4513783002.994531</v>
+        <v>4467973673.265039</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0949103538421107</v>
+        <v>0.1057201080202916</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04739427964897947</v>
+        <v>0.04982850288722509</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>36</v>
+      </c>
+      <c r="J78" t="n">
+        <v>76</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1889954826.032923</v>
+        <v>1404389182.944818</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1410801763895101</v>
+        <v>0.1461422167777109</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02941323900137715</v>
+        <v>0.03525350576904041</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4833382368.604569</v>
+        <v>5632512297.981918</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09260627496871568</v>
+        <v>0.07281676020187819</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03309551050389914</v>
+        <v>0.03313454649382137</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>36</v>
+      </c>
+      <c r="J80" t="n">
+        <v>76</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4015159841.649103</v>
+        <v>5171970077.227917</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1092840322517025</v>
+        <v>0.09614047652336151</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02922996039496895</v>
+        <v>0.02162384211862486</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>34</v>
+      </c>
+      <c r="J81" t="n">
+        <v>76</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3462789346.291199</v>
+        <v>3851297844.490767</v>
       </c>
       <c r="F82" t="n">
-        <v>0.199284619983901</v>
+        <v>0.1798867279278775</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02557062444547665</v>
+        <v>0.02850079109724516</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>47</v>
+      </c>
+      <c r="J82" t="n">
+        <v>75</v>
+      </c>
+      <c r="K82" t="n">
+        <v>157.2383986565992</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1916199801.893326</v>
+        <v>1701834604.163452</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1505001392276335</v>
+        <v>0.1328256788627953</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03505269758729036</v>
+        <v>0.03506329077680326</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2300604618.733724</v>
+        <v>1611852444.05906</v>
       </c>
       <c r="F84" t="n">
-        <v>0.114261158311696</v>
+        <v>0.1154751451595693</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03324340745068891</v>
+        <v>0.03626343754180351</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2555374446.174727</v>
+        <v>2850030857.572631</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1414482406782108</v>
+        <v>0.1745907004904315</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05684328911914719</v>
+        <v>0.03810513448525465</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2612662141.404629</v>
+        <v>2479521652.650565</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1366350036752835</v>
+        <v>0.1320243975783353</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0171713866123742</v>
+        <v>0.02620521036596213</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1050985796.93179</v>
+        <v>1219486693.625413</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1330647412941853</v>
+        <v>0.1576318574075381</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03231121439023816</v>
+        <v>0.03062736659570315</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3435897530.602635</v>
+        <v>3496280386.14069</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1536279155863279</v>
+        <v>0.1177075176307501</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03453853836988762</v>
+        <v>0.03462380260743811</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>76</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3364559996.367179</v>
+        <v>3285241492.093417</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1068232120641061</v>
+        <v>0.1183404781729148</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03366694670395182</v>
+        <v>0.03409488166397088</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1607150631.009695</v>
+        <v>1344679046.33936</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1357987660621109</v>
+        <v>0.08694068515963964</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04762170884586074</v>
+        <v>0.0341937650661224</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1974466652.070165</v>
+        <v>1644915836.888045</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1237436795246953</v>
+        <v>0.1544192520602615</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04142287772555567</v>
+        <v>0.05610668285501923</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2464900414.375873</v>
+        <v>2406419901.874533</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06826152379819339</v>
+        <v>0.108485470306642</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03625911485375321</v>
+        <v>0.03596550474935752</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3231613720.737951</v>
+        <v>4398716340.165931</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09317426585612915</v>
+        <v>0.1019141556854414</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03697180431999831</v>
+        <v>0.04339618052362026</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>34</v>
+      </c>
+      <c r="J93" t="n">
+        <v>76</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2076400940.474186</v>
+        <v>2454483555.3959</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1028979291170657</v>
+        <v>0.1031938658129886</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02874064132285613</v>
+        <v>0.03254554662351154</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2046923419.890712</v>
+        <v>2115772325.721014</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1350072976309643</v>
+        <v>0.1308104839355629</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05276203744492047</v>
+        <v>0.03458578019974645</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2272054245.292061</v>
+        <v>2304838721.137799</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1167150634152568</v>
+        <v>0.08746963866492966</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0355976071991937</v>
+        <v>0.04520293613468165</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3549850699.128914</v>
+        <v>4290286760.384117</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1563004216949408</v>
+        <v>0.1179824557138852</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01758240478526771</v>
+        <v>0.02029172181572529</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>36</v>
+      </c>
+      <c r="J97" t="n">
+        <v>76</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3239391577.829272</v>
+        <v>2732367354.311863</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1301562007708651</v>
+        <v>0.08809584322495381</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02467062674436268</v>
+        <v>0.0253232101546397</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2432495781.357474</v>
+        <v>3001361925.414078</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1254954743023355</v>
+        <v>0.1323254214104182</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02945285568609207</v>
+        <v>0.03507096788680992</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3040154637.994905</v>
+        <v>4231495790.655005</v>
       </c>
       <c r="F100" t="n">
-        <v>0.155709698132327</v>
+        <v>0.1117977017585186</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0245410546834928</v>
+        <v>0.01717027001416963</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>32</v>
+      </c>
+      <c r="J100" t="n">
+        <v>75</v>
+      </c>
+      <c r="K100" t="n">
+        <v>169.011408648004</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2609275770.334465</v>
+        <v>2224969422.335911</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1669462321205335</v>
+        <v>0.1690754341123822</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04737122137982851</v>
+        <v>0.04326788961184298</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
